--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-08_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-08_end.xlsx
@@ -2720,7 +2720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">January 3rd 
+    <t xml:space="preserve">January 3rd 
 </t>
   </si>
   <si>
@@ -2988,7 +2988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  (Makes the Rhodes Island hand gesture for “quiet.”)
+    <t xml:space="preserve">[name="Kal'tsit"]  (Makes the Rhodes Island hand gesture for 'quiet.')
 </t>
   </si>
   <si>
@@ -3000,7 +3000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Because Reunion “shouldn’t” be doing this.
+    <t xml:space="preserve">[name="Kal'tsit"]  Because Reunion 'shouldn’t' be doing this.
 </t>
   </si>
   <si>
@@ -3372,7 +3372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Because what we do next can hardly be called an infiltration, Dr. {@nickname}. 
+    <t xml:space="preserve">[name="Kal'tsit"]  Because what we do next can hardly be called an infiltration, Dr. {@nickname}. 
 </t>
   </si>
   <si>
@@ -3412,7 +3412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The war raged for so long that the Infected hiding out in the snow came to call the guerrillas their “Aegis.”
+    <t xml:space="preserve">[name="Kal'tsit"]  The war raged for so long that the Infected hiding out in the snow came to call the guerrillas their 'Aegis.'
 </t>
   </si>
   <si>
@@ -3484,7 +3484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Yes, Doctor, this guerrilla force is another sort of “Rhodes Island.”
+    <t xml:space="preserve">[name="Kal'tsit"]  Yes, Doctor, this guerrilla force is another sort of 'Rhodes Island.'
 </t>
   </si>
   <si>
@@ -3516,7 +3516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But that is “Patriot,” Buldrokkas'tee.
+    <t xml:space="preserve">[name="Kal'tsit"]  But that is 'Patriot,' Buldrokkas'tee.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-08_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-08_end.xlsx
@@ -2400,11 +2400,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  The ritual has no affect on these Sarkaz... But our Sarkaz operators aren’t immune? Why?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  But they didn’t look like they were with the guerrilla team. Strange...
+    <t xml:space="preserve">[name="Amiya"]  The ritual has no affect on these Sarkaz... But our Sarkaz operators aren't immune? Why?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But they didn't look like they were with the guerrilla team. Strange...
 </t>
   </si>
   <si>
@@ -2416,11 +2416,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’m going on patrol.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Don’t thank me. Like Amiya always says, you don’t thank people for doing their jobs.
+    <t xml:space="preserve">[name="Rosmontis"]  I'm going on patrol.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Don't thank me. Like Amiya always says, you don't thank people for doing their jobs.
 </t>
   </si>
   <si>
@@ -2432,7 +2432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Take the medicine back to the others. There isn’t much, probably only enough for one dose, but it will help with acute symptoms. 
+    <t xml:space="preserve">[name="Amiya"]  Take the medicine back to the others. There isn't much, probably only enough for one dose, but it will help with acute symptoms. 
 </t>
   </si>
   <si>
@@ -2440,7 +2440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m sorry, but we can’t help you much more than this.
+    <t xml:space="preserve">[name="Amiya"]  I'm sorry, but we can't help you much more than this.
 </t>
   </si>
   <si>
@@ -2448,15 +2448,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Also... if Reunion breaks into a full-scale riot again, I think we won’t be able to handle them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  All those things I said to you... I... I wasn’t like this before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  I used to hate you people. But now, I’m like you. Everyone hates me too.
+    <t xml:space="preserve">[name="Amiya"]  Also... if Reunion breaks into a full-scale riot again, I think we won't be able to handle them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  All those things I said to you... I... I wasn't like this before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  I used to hate you people. But now, I'm like you. Everyone hates me too.
 </t>
   </si>
   <si>
@@ -2468,19 +2468,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Even though we’re already Infected? Does Reunion... really hate the Ursus so much?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  People don’t need much to indulge in the ugliest side of their nature. Just giving them free rein can contaminate every part of a city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit... you scared me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, you shouldn’t be letting these games get the better of you.
+    <t xml:space="preserve">[name="Ursus Infected"]  Even though we're already Infected? Does Reunion... really hate the Ursus so much?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  People don't need much to indulge in the ugliest side of their nature. Just giving them free rein can contaminate every part of a city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit... you scared me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, you shouldn't be letting these games get the better of you.
 </t>
   </si>
   <si>
@@ -2488,19 +2488,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’ll spoil our plans if you waste so much time talking.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  So... Dr. Kal’tsit, if she lied, were you really going to kill me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  I... I didn’t lie though!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Just hypothetically. Not every Infected is so honest after they’ve been hurt. I’ve acted on impulse before myself.
+    <t xml:space="preserve">[name="Kal'tsit"]  You'll spoil our plans if you waste so much time talking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  So... Dr. Kal'tsit, if she lied, were you really going to kill me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  I... I didn't lie though!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Just hypothetically. Not every Infected is so honest after they've been hurt. I've acted on impulse before myself.
 </t>
   </si>
   <si>
@@ -2512,11 +2512,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’re a Rhodes Island operator. I trust you over all others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Let’s call it a form of psychological treatment for her. Naturally, the way you and she responded to it proved your innocence.
+    <t xml:space="preserve">[name="Kal'tsit"]  You're a Rhodes Island operator. I trust you over all others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Let's call it a form of psychological treatment for her. Naturally, the way you and she responded to it proved your innocence.
 </t>
   </si>
   <si>
@@ -2528,7 +2528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Sounds fine to me. I wouldn’t do it, but I’d like to make people think that I would.
+    <t xml:space="preserve">[name="Kal'tsit"]  Sounds fine to me. I wouldn't do it, but I'd like to make people think that I would.
 </t>
   </si>
   <si>
@@ -2540,7 +2540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Don’t worry, Guard. If she did go too far, I would’ve stepped in to stop her.
+    <t xml:space="preserve">[name="Amiya"]  Don't worry, Guard. If she did go too far, I would've stepped in to stop her.
 </t>
   </si>
   <si>
@@ -2548,7 +2548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Oh, no need. I’d be awful weak if I needed the Amiya treatment after just that.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Oh, no need. I'd be awful weak if I needed the Amiya treatment after just that.
 </t>
   </si>
   <si>
@@ -2560,15 +2560,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But even that’s looking better. She and I sorted things out, and I think I get it... but I still can’t let go of the time she split a person clean in half with the sweep of a claymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That’s gonna be with me my whole life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Oh... I know the incident you’re talking about.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But even that's looking better. She and I sorted things out, and I think I get it... but I still can't let go of the time she split a person clean in half with the sweep of a claymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That's gonna be with me my whole life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh... I know the incident you're talking about.
 </t>
   </si>
   <si>
@@ -2576,7 +2576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  She killed an abandoned weapons-grade experimental caster they’d bought from a Sargon slaver. The entire batch of casters had their pituitary glands surgically removed.
+    <t xml:space="preserve">[name="Amiya"]  She killed an abandoned weapons-grade experimental caster they'd bought from a Sargon slaver. The entire batch of casters had their pituitary glands surgically removed.
 </t>
   </si>
   <si>
@@ -2588,7 +2588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...So that’s what happened?
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...So that's what happened?
 </t>
   </si>
   <si>
@@ -2596,19 +2596,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  What you look like, and any rumors going around about you, are anyone’s first window into your personality. No matter what you did, they’d be looking at you as Reunion first.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  But if we never got past the surface... we’d never know anything, let alone learn to trust.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  If no one tries to find the truth, then no matter how hard we work to sow its seeds, they won’t germinate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  And anyway, Rosmontis is right in front of you. Why don’t you just... ask her?
+    <t xml:space="preserve">[name="Amiya"]  What you look like, and any rumors going around about you, are anyone's first window into your personality. No matter what you did, they'd be looking at you as Reunion first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But if we never got past the surface... we'd never know anything, let alone learn to trust.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If no one tries to find the truth, then no matter how hard we work to sow its seeds, they won't germinate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And anyway, Rosmontis is right in front of you. Why don't you just... ask her?
 </t>
   </si>
   <si>
@@ -2624,7 +2624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  (Um, not like that... she won’t know what to say...)
+    <t xml:space="preserve">[name="Amiya"]  (Um, not like that... she won't know what to say...)
 </t>
   </si>
   <si>
@@ -2644,11 +2644,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’m done asking.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But... I don’t even know what I asked.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I'm done asking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But... I don't even know what I asked.
 </t>
   </si>
   <si>
@@ -2660,11 +2660,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’m pretty sure Dr. Kal’tsit and Dr. {@nickname} here can make sense of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The only reason there’s anyone still left alive, why so many Ursus were able to make it through Chernobog...
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I'm pretty sure Dr. Kal'tsit and Dr. {@nickname} here can make sense of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The only reason there's anyone still left alive, why so many Ursus were able to make it through Chernobog...
 </t>
   </si>
   <si>
@@ -2676,7 +2676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Not only did they hand out supplies and resources, but they even worked to make the locals’ lives a little better.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Not only did they hand out supplies and resources, but they even worked to make the locals' lives a little better.
 </t>
   </si>
   <si>
@@ -2684,7 +2684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I overheard him talking to the leader of Azazel. I think even if it’s all an act, he’s at least working hard to keep up the act.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I overheard him talking to the leader of Azazel. I think even if it's all an act, he's at least working hard to keep up the act.
 </t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I... why can’t I remember? He died? He...
+    <t xml:space="preserve">[name="Rosmontis"]  I... why can't I remember? He died? He...
 </t>
   </si>
   <si>
@@ -2724,15 +2724,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">An old man with white hair brought a charred, blackened object. Mechanist couldn’t stand after seeing it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The old man nodded and left. Dr. Kal'tsit didn’t say anything, only patted my head.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was Scout’s.
+    <t xml:space="preserve">An old man with white hair brought a charred, blackened object. Mechanist couldn't stand after seeing it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The old man nodded and left. Dr. Kal'tsit didn't say anything, only patted my head.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was Scout's.
 </t>
   </si>
   <si>
@@ -2740,11 +2740,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Scout was the one who didn’t even have a shadow, wasn’t he? Wouldn’t he be the one who came back even when everyone else died? Wasn’t he the one with a never-ending story?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I searched the logs. Scout made me a bow. But that’s a toy for little girls. I don’t play with toys anymore.
+    <t xml:space="preserve">Scout was the one who didn't even have a shadow, wasn't he? Wouldn't he be the one who came back even when everyone else died? Wasn't he the one with a never-ending story?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I searched the logs. Scout made me a bow. But that's a toy for little girls. I don't play with toys anymore.
 </t>
   </si>
   <si>
@@ -2772,11 +2772,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Turns out elite operators... aren’t that different... from my teammates.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. {@nickname}, I’ve got something to say.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Turns out elite operators... aren't that different... from my teammates.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. {@nickname}, I've got something to say.
 </t>
   </si>
   <si>
@@ -2788,7 +2788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Knowing Scout, he could’ve easily gotten out if he wanted to.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Knowing Scout, he could've easily gotten out if he wanted to.
 </t>
   </si>
   <si>
@@ -2808,15 +2808,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He also wanted you to stop being a commander. But things being what they are, I think you probably can’t just sit by and watch.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Boss sacrificed himself to save me too. That means I’ve got two elite operators’ lives on my shoulders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But Mr. Scout said they didn’t die for any one person. They died for an idea.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He also wanted you to stop being a commander. But things being what they are, I think you probably can't just sit by and watch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Boss sacrificed himself to save me too. That means I've got two elite operators' lives on my shoulders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But Mr. Scout said they didn't die for any one person. They died for an idea.
 </t>
   </si>
   <si>
@@ -2832,7 +2832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They were a little more savage, of course, but they never found joy in violence. That’s what I saw in them.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They were a little more savage, of course, but they never found joy in violence. That's what I saw in them.
 </t>
   </si>
   <si>
@@ -2840,11 +2840,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They’d exterminate those who enslave the Infected, and those who threaten the common folk. All of them. To a man.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That’s because of Patriot. Patriot taught them, led them, and protected them.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They'd exterminate those who enslave the Infected, and those who threaten the common folk. All of them. To a man.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That's because of Patriot. Patriot taught them, led them, and protected them.
 </t>
   </si>
   <si>
@@ -2864,15 +2864,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I have. He led an entire elite division out of Ursus. The Great Rebellion proved to be fertile ground for all sorts of things that otherwise would’ve been absurd. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The truth is, there aren’t many of those soldiers he led out of Ursus left.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Their clashes with the Ursus regulars must’ve cost them a lot of men.
+    <t xml:space="preserve">[name="Kal'tsit"]  I have. He led an entire elite division out of Ursus. The Great Rebellion proved to be fertile ground for all sorts of things that otherwise would've been absurd. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The truth is, there aren't many of those soldiers he led out of Ursus left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Their clashes with the Ursus regulars must've cost them a lot of men.
 </t>
   </si>
   <si>
@@ -2896,7 +2896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatiana"]  ...That’s right.
+    <t xml:space="preserve">[name="Tatiana"]  ...That's right.
 </t>
   </si>
   <si>
@@ -2904,7 +2904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatiana"]  What’s that?
+    <t xml:space="preserve">[name="Tatiana"]  What's that?
 </t>
   </si>
   <si>
@@ -2912,19 +2912,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatiana"]  It got better a while ago...! I’m Ursus! I’m not like... whatever your race is. Us Ursus are much sturdier.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’m glad... it looked pretty nasty.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Hah, here I am, doing a medic operator’s job without any training.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’ve got a lot on my plate, Dr. Kal'tsit.
+    <t xml:space="preserve">[name="Tatiana"]  It got better a while ago...! I'm Ursus! I'm not like... whatever your race is. Us Ursus are much sturdier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I'm glad... it looked pretty nasty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Hah, here I am, doing a medic operator's job without any training.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I've got a lot on my plate, Dr. Kal'tsit.
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Medic didn’t come with you?
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Medic didn't come with you?
 </t>
   </si>
   <si>
@@ -2944,11 +2944,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Don’t worry about it. I can tell by the look on Rosmontis’s face what happened. We’ve lost a lot of people, but Rhodes Island fights on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m getting the impression that you don’t know the core city is on a collision course with Lungmen.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Don't worry about it. I can tell by the look on Rosmontis's face what happened. We've lost a lot of people, but Rhodes Island fights on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm getting the impression that you don't know the core city is on a collision course with Lungmen.
 </t>
   </si>
   <si>
@@ -2956,7 +2956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Oh, are you talking about helping the Reunion forces at the battle of Lungmen? Moving the core city is Reunion’s only play. I heard about that.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Oh, are you talking about helping the Reunion forces at the battle of Lungmen? Moving the core city is Reunion's only play. I heard about that.
 </t>
   </si>
   <si>
@@ -2976,15 +2976,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...No way... That doesn’t make any sense!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Now you know why we’re here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatiana"]  What’s the problem?
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...No way... That doesn't make any sense!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Now you know why we're here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatiana"]  What's the problem?
 </t>
   </si>
   <si>
@@ -2996,11 +2996,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatiana"]  ...You’ve been talking so long. If Patriot and his men are as good as you say, why is Reunion still running amok here in Ursus?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Because Reunion 'shouldn’t' be doing this.
+    <t xml:space="preserve">[name="Tatiana"]  ...You've been talking so long. If Patriot and his men are as good as you say, why is Reunion still running amok here in Ursus?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Because Reunion 'shouldn't' be doing this.
 </t>
   </si>
   <si>
@@ -3012,19 +3012,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I think you would be a great help to our operation, since you’re familiar with both the local Infected and Reunion. Would you be willing to rejoin our team?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Oh, but you can’t leave yet, can you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Right. I’m sure you can tell just by looking at me. Right, Amiya?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Sorry, I know I’m about a decade older than you, but sometimes you make me feel like a kid.
+    <t xml:space="preserve">[name="Amiya"]  I think you would be a great help to our operation, since you're familiar with both the local Infected and Reunion. Would you be willing to rejoin our team?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, but you can't leave yet, can you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Right. I'm sure you can tell just by looking at me. Right, Amiya?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Sorry, I know I'm about a decade older than you, but sometimes you make me feel like a kid.
 </t>
   </si>
   <si>
@@ -3032,7 +3032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...But you’re in a very dangerous position.
+    <t xml:space="preserve">[name="Kal'tsit"]  ...But you're in a very dangerous position.
 </t>
   </si>
   <si>
@@ -3044,7 +3044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  No, I’m not.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  No, I'm not.
 </t>
   </si>
   <si>
@@ -3052,15 +3052,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  As long as he’s here, Reunion won’t fall.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  A lot of guerrilla fighters left camp and gathered up. I’m thinking that's because he may be back already.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And if he’s here, I believe Reunion can still change.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  As long as he's here, Reunion won't fall.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  A lot of guerrilla fighters left camp and gathered up. I'm thinking that's because he may be back already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And if he's here, I believe Reunion can still change.
 </t>
   </si>
   <si>
@@ -3068,11 +3068,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Chernobog’s core city, the ruins of Chernobog back there, and the Ursus Infected...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We can’t forget that the Ursus Third Army is still out there waiting to act. That will make everything drastically worse.
+    <t xml:space="preserve">[name="Kal'tsit"]  Chernobog's core city, the ruins of Chernobog back there, and the Ursus Infected...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We can't forget that the Ursus Third Army is still out there waiting to act. That will make everything drastically worse.
 </t>
   </si>
   <si>
@@ -3080,11 +3080,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And there are a few things... Rhodes Island can’t handle. This is one of those things!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Rhodes Island is a corporation. Dr. Kal’tsit has been very clear about that, time and again.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And there are a few things... Rhodes Island can't handle. This is one of those things!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Rhodes Island is a corporation. Dr. Kal'tsit has been very clear about that, time and again.
 </t>
   </si>
   <si>
@@ -3100,23 +3100,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Aren’t you mad, Amiya?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Why should I be mad at you... over things we can’t do, and things we haven’t done?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  So much happened these past two weeks. We’ve all changed a lot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  But we’re not about to turn on each other because of the Infected. I think all that happened in Chernobog, and what Guard and I saw, were the same.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Correct. I still can’t stand hurting people like that. No matter who’s doing it to who, I won’t stand for it.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Aren't you mad, Amiya?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Why should I be mad at you... over things we can't do, and things we haven't done?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  So much happened these past two weeks. We've all changed a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But we're not about to turn on each other because of the Infected. I think all that happened in Chernobog, and what Guard and I saw, were the same.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Correct. I still can't stand hurting people like that. No matter who's doing it to who, I won't stand for it.
 </t>
   </si>
   <si>
@@ -3152,11 +3152,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  As for my responsibilities at Rhodes Island... Amiya, Dr. Kal’tsit... Will they be more important?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...I wouldn’t put it that way, Guard. It’s more important to decide for yourself what you want to do.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  As for my responsibilities at Rhodes Island... Amiya, Dr. Kal'tsit... Will they be more important?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I wouldn't put it that way, Guard. It's more important to decide for yourself what you want to do.
 </t>
   </si>
   <si>
@@ -3164,7 +3164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Different people make different choices. If something’s important to you, it’s important.
+    <t xml:space="preserve">[name="Kal'tsit"]  Different people make different choices. If something's important to you, it's important.
 </t>
   </si>
   <si>
@@ -3176,7 +3176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...I’m not. No reason. Just thinking.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...I'm not. No reason. Just thinking.
 </t>
   </si>
   <si>
@@ -3184,7 +3184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Regarding your pay, I’m afraid your work here doesn’t support a salary. Sorry.
+    <t xml:space="preserve">[name="Kal'tsit"]  Regarding your pay, I'm afraid your work here doesn't support a salary. Sorry.
 </t>
   </si>
   <si>
@@ -3196,7 +3196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...That won’t happen. Patriot trusts Talulah deeply. 
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...That won't happen. Patriot trusts Talulah deeply. 
 </t>
   </si>
   <si>
@@ -3216,11 +3216,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal’tsit?! What are you saying?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That... th-that’s Patriot’s daughter...!
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal'tsit?! What are you saying?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That... th-that's Patriot's daughter...!
 </t>
   </si>
   <si>
@@ -3228,15 +3228,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  That would be the worst case scenario. And it’s what the puppetmasters would want.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  If Talulah really is turning a blind eye to, or even allowing the Infected to harm innocent civilians in spite of Patriot’s stance... I believe that’s no longer just turning a blind eye.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  A lot of Infected will make Patriot into a target. Those who don’t know the truth, and those who let their hatred get the better of them.
+    <t xml:space="preserve">[name="Amiya"]  That would be the worst case scenario. And it's what the puppetmasters would want.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If Talulah really is turning a blind eye to, or even allowing the Infected to harm innocent civilians in spite of Patriot's stance... I believe that's no longer just turning a blind eye.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  A lot of Infected will make Patriot into a target. Those who don't know the truth, and those who let their hatred get the better of them.
 </t>
   </si>
   <si>
@@ -3260,11 +3260,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I didn’t think things would turn out like this.", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s not the obvious step for Reunion to take.
+    <t xml:space="preserve">[Decision(options="I didn't think things would turn out like this.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It's not the obvious step for Reunion to take.
 </t>
   </si>
   <si>
@@ -3272,7 +3272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Us, Reunion, and Lungmen too... We can’t let anyone else slip through the cracks.
+    <t xml:space="preserve">[name="Amiya"]  Us, Reunion, and Lungmen too... We can't let anyone else slip through the cracks.
 </t>
   </si>
   <si>
@@ -3288,7 +3288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  The leader of Reunion. She’s the cause of all of this.
+    <t xml:space="preserve">[name="Amiya"]  The leader of Reunion. She's the cause of all of this.
 </t>
   </si>
   <si>
@@ -3296,11 +3296,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  The captain has determined Reunion’s communication method. It’s primitive, even artificial-looking. As for personnel, she’s just about done clearing the area.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Not the guerrillas though. They’re tough.
+    <t xml:space="preserve">[name="Elysium"]  The captain has determined Reunion's communication method. It's primitive, even artificial-looking. As for personnel, she's just about done clearing the area.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Not the guerrillas though. They're tough.
 </t>
   </si>
   <si>
@@ -3308,11 +3308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  No need for that. We’re not here to eliminate them, or have them butcher each other.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’re not here to stir up internal conflict. They should oppose those who misled them.
+    <t xml:space="preserve">[name="Kal'tsit"]  No need for that. We're not here to eliminate them, or have them butcher each other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We're not here to stir up internal conflict. They should oppose those who misled them.
 </t>
   </si>
   <si>
@@ -3320,7 +3320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  That’s her question. I’m good.
+    <t xml:space="preserve">[name="Elysium"]  That's her question. I'm good.
 </t>
   </si>
   <si>
@@ -3332,7 +3332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Take it away or break it, and watch them crumble. That’s what we might have done at first.
+    <t xml:space="preserve">[name="Kal'tsit"]  Take it away or break it, and watch them crumble. That's what we might have done at first.
 </t>
   </si>
   <si>
@@ -3352,7 +3352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  She must still have a queen on the board, or she wouldn’t be so bold.
+    <t xml:space="preserve">[name="Kal'tsit"]  She must still have a queen on the board, or she wouldn't be so bold.
 </t>
   </si>
   <si>
@@ -3368,7 +3368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="It looks like we’ve successfully infiltrated the core city.", values="1")]
+    <t xml:space="preserve">[Decision(options="It looks like we've successfully infiltrated the core city.", values="1")]
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  To get to the core command tower and the generator area to halt Chernobog’s movement, we will have to go through the central district.
+    <t xml:space="preserve">[name="Kal'tsit"]  To get to the core command tower and the generator area to halt Chernobog's movement, we will have to go through the central district.
 </t>
   </si>
   <si>
@@ -3388,19 +3388,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Reunion’s running low on leaders.", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Let’s put W aside for now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  As a tactician, you should be more concerned about this than about Talulah, Reunion’s tyrant.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The Infected Guerrillas of the Northern Plains, a thorn in the hinterland of Ursus’s Fourth Army to the northwest... Since its formation, it has only ever had one leader.
+    <t xml:space="preserve">[Decision(options="Reunion's running low on leaders.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Let's put W aside for now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As a tactician, you should be more concerned about this than about Talulah, Reunion's tyrant.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Infected Guerrillas of the Northern Plains, a thorn in the hinterland of Ursus's Fourth Army to the northwest... Since its formation, it has only ever had one leader.
 </t>
   </si>
   <si>
@@ -3436,7 +3436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="It’s exactly what you’re thinking.;......;I just said whatever came to mind.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="It's exactly what you're thinking.;......;I just said whatever came to mind.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -3448,7 +3448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You’re not mad?;......;I thought you wouldn’t appreciate that.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="You're not mad?;......;I thought you wouldn't appreciate that.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -3456,19 +3456,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  There’s nothing to see in these eyes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  There’s no point in staying silent at a time like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s your choice whether or not you hold an opinion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Would you rather I didn’t?
+    <t xml:space="preserve">[name="Kal'tsit"]  There's nothing to see in these eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There's no point in staying silent at a time like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's your choice whether or not you hold an opinion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Would you rather I didn't?
 </t>
   </si>
   <si>
@@ -3476,7 +3476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Not now. I don’t think you do, and I don’t think there’s anything wrong with what you said.
+    <t xml:space="preserve">[name="Kal'tsit"]  Not now. I don't think you do, and I don't think there's anything wrong with what you said.
 </t>
   </si>
   <si>
@@ -3492,7 +3492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, prepare yourself well. Or you’ll regret it.
+    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, prepare yourself well. Or you'll regret it.
 </t>
   </si>
   <si>
@@ -3548,7 +3548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Where do you think you’re going?
+    <t xml:space="preserve">[name="???"]  Where do you think you're going?
 </t>
   </si>
   <si>
@@ -3568,7 +3568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Oh, or maybe you’re with the old Wendigo.
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Oh, or maybe you're with the old Wendigo.
 </t>
   </si>
   <si>
@@ -4268,7 +4268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"]  로도스는 단지 제약회사에 불과하다, 선생님이 항상 하던 말씀이니 더 잘 아시겠죠.
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"]  로도스 아일랜드는 단지 제약회사에 불과하다, 선생님이 항상 하던 말씀이니 더 잘 아시겠죠.
 </t>
   </si>
   <si>
